--- a/exampleProblems/Gelcohol/Gelcohol.xlsx
+++ b/exampleProblems/Gelcohol/Gelcohol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Gelcohol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1769054-BABC-894E-A109-B3BE95A5BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B991F1F2-9B65-447E-945F-0086CB2053BC}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C1769054-BABC-894E-A109-B3BE95A5BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4011ABA6-C969-3047-A723-DEC3763FB733}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="450" windowWidth="26190" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -316,12 +316,18 @@
       <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -416,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -448,6 +454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +470,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,9 +745,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -769,15 +780,16 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -804,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -833,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -862,7 +874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -891,7 +903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -918,7 +930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -947,7 +959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -976,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1331,12 +1343,12 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -1363,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1388,7 +1400,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1413,7 +1425,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1488,7 +1500,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1513,7 +1525,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1538,7 +1550,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1563,7 +1575,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1588,7 +1600,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1613,7 +1625,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1638,7 +1650,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1688,7 +1700,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1713,7 +1725,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1738,7 +1750,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1795,13 +1807,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:K18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1834,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1862,11 +1874,11 @@
       <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1894,11 +1906,11 @@
       <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1926,11 +1938,11 @@
       <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="10"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1958,11 +1970,11 @@
       <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="10"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>50.704999999999998</v>
       </c>
       <c r="D6" s="10">
-        <v>14.24</v>
+        <v>-14.24</v>
       </c>
       <c r="E6" s="10">
         <v>10.8</v>
@@ -1990,10 +2002,10 @@
       <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2021,11 +2033,11 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="10"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>50.704999999999998</v>
       </c>
       <c r="D8" s="10">
-        <v>13.45</v>
+        <v>-13.45</v>
       </c>
       <c r="E8" s="10">
         <v>10.61</v>
@@ -2053,11 +2065,11 @@
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="10"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>27.38</v>
       </c>
       <c r="D9" s="10">
-        <v>3.91</v>
+        <v>-3.91</v>
       </c>
       <c r="E9" s="10">
         <v>22.97</v>
@@ -2085,11 +2097,11 @@
       <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>28.510999999999999</v>
       </c>
       <c r="D10" s="10">
-        <v>5.22</v>
+        <v>-5.22</v>
       </c>
       <c r="E10" s="10">
         <v>14.14</v>
@@ -2117,11 +2129,11 @@
       <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>27.359000000000002</v>
       </c>
       <c r="D11" s="10">
-        <v>4.09</v>
+        <v>-4.09</v>
       </c>
       <c r="E11" s="10">
         <v>28</v>
@@ -2149,11 +2161,11 @@
       <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="10"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>26.498000000000001</v>
       </c>
       <c r="D12" s="10">
-        <v>4.04</v>
+        <v>-4.04</v>
       </c>
       <c r="E12" s="10">
         <v>12.97</v>
@@ -2181,11 +2193,11 @@
       <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="10"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2213,11 +2225,11 @@
       <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="10"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>26.498000000000001</v>
       </c>
       <c r="D14" s="10">
-        <v>3.88</v>
+        <v>-3.88</v>
       </c>
       <c r="E14" s="10">
         <v>11.41</v>
@@ -2245,105 +2257,105 @@
       <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="10">
+    <row r="15" spans="1:13" ht="17">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="13">
         <v>1.744</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <v>25.751000000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <v>29.54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <v>9.7200000000000006</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="13">
         <v>88.86</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="13">
         <v>979.48</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
-      <c r="A16" s="10">
+    <row r="16" spans="1:13" ht="17">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="13">
         <v>1.657</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="13">
         <v>18.033999999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="13">
         <v>17.43</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="13">
         <v>10.17</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="13">
         <v>83.62</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="13">
         <v>569.53</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="11"/>
       <c r="K16" s="10"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
+    <row r="17" spans="1:13" ht="17">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
         <v>1.2210000000000001</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="13">
         <v>13.967000000000001</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="13">
         <v>28.48</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="13">
         <v>9.68</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="13">
         <v>85.59</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="13">
         <v>906.78</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11"/>
       <c r="K17" s="10"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5">
+    <row r="18" spans="1:13" ht="17">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>28.510999999999999</v>
       </c>
       <c r="D18" s="10">
-        <v>3.33</v>
+        <v>-3.33</v>
       </c>
       <c r="E18" s="10">
         <v>14.22</v>
@@ -2371,11 +2383,11 @@
       <c r="I18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:13" ht="17">
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:13">
       <c r="J20" s="1"/>
@@ -2390,13 +2402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V30" sqref="L1:V30"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J19" sqref="J2:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2429,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2457,10 +2469,10 @@
       <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2488,10 +2500,10 @@
       <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2519,10 +2531,10 @@
       <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2550,10 +2562,10 @@
       <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2581,10 +2593,10 @@
       <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2612,10 +2624,10 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2643,10 +2655,10 @@
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2674,10 +2686,10 @@
       <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2705,10 +2717,10 @@
       <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2736,10 +2748,10 @@
       <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2767,10 +2779,10 @@
       <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2798,10 +2810,10 @@
       <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2829,10 +2841,10 @@
       <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2860,10 +2872,10 @@
       <c r="I15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2891,10 +2903,10 @@
       <c r="I16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2922,10 +2934,10 @@
       <c r="I17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2953,10 +2965,10 @@
       <c r="I18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
+    <row r="19" spans="1:22" ht="17">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2984,10 +2996,10 @@
       <c r="I19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3018,7 +3030,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
+    <row r="21" spans="1:22" ht="17">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3049,7 +3061,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
+    <row r="22" spans="1:22" ht="17">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3080,7 +3092,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
+    <row r="23" spans="1:22" ht="17">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3111,7 +3123,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -3142,7 +3154,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5">
+    <row r="25" spans="1:22" ht="17">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3170,10 +3182,10 @@
       <c r="I25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5">
+    <row r="26" spans="1:22" ht="17">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -3201,10 +3213,10 @@
       <c r="I26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5">
+    <row r="27" spans="1:22" ht="17">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3232,10 +3244,10 @@
       <c r="I27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5">
+    <row r="28" spans="1:22" ht="17">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -3263,10 +3275,10 @@
       <c r="I28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5">
+    <row r="29" spans="1:22" ht="17">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3294,10 +3306,10 @@
       <c r="I29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="10"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5">
+    <row r="30" spans="1:22" ht="17">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -3325,10 +3337,10 @@
       <c r="I30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="17">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3356,7 +3368,7 @@
       <c r="I31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="10"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -3370,7 +3382,7 @@
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="17">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -3398,10 +3410,10 @@
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="10"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5">
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3429,10 +3441,10 @@
       <c r="I33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5">
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -3460,10 +3472,10 @@
       <c r="I34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="10"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3491,10 +3503,10 @@
       <c r="I35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5">
+    <row r="36" spans="1:11" ht="17">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -3522,10 +3534,10 @@
       <c r="I36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5">
+    <row r="37" spans="1:11" ht="17">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3553,10 +3565,10 @@
       <c r="I37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5">
+    <row r="38" spans="1:11" ht="17">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -3584,10 +3596,10 @@
       <c r="I38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5">
+    <row r="39" spans="1:11" ht="17">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3615,10 +3627,10 @@
       <c r="I39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5">
+    <row r="40" spans="1:11" ht="17">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -3646,10 +3658,10 @@
       <c r="I40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="10"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5">
+    <row r="41" spans="1:11" ht="17">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3677,10 +3689,10 @@
       <c r="I41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="10"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5">
+    <row r="42" spans="1:11" ht="17">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -3708,10 +3720,10 @@
       <c r="I42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="10"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5">
+    <row r="43" spans="1:11" ht="17">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5">
+    <row r="44" spans="1:11" ht="17">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -3773,7 +3785,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5">
+    <row r="45" spans="1:11" ht="17">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -3804,7 +3816,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5">
+    <row r="46" spans="1:11" ht="17">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -3835,7 +3847,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5">
+    <row r="47" spans="1:11" ht="17">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -3866,7 +3878,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5">
+    <row r="48" spans="1:11" ht="17">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -3897,7 +3909,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5">
+    <row r="49" spans="1:11" ht="17">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -3928,7 +3940,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5">
+    <row r="50" spans="1:11" ht="17">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -3959,7 +3971,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5">
+    <row r="51" spans="1:11" ht="17">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -3990,7 +4002,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5">
+    <row r="52" spans="1:11" ht="17">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -4021,7 +4033,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5">
+    <row r="53" spans="1:11" ht="17">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -4052,7 +4064,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5">
+    <row r="54" spans="1:11" ht="17">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -4083,7 +4095,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5">
+    <row r="55" spans="1:11" ht="17">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -4114,7 +4126,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5">
+    <row r="56" spans="1:11" ht="17">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -4145,7 +4157,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5">
+    <row r="57" spans="1:11" ht="17">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -4176,7 +4188,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5">
+    <row r="58" spans="1:11" ht="17">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -4207,7 +4219,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5">
+    <row r="59" spans="1:11" ht="17">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -4238,7 +4250,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5">
+    <row r="60" spans="1:11" ht="17">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -4286,9 +4298,9 @@
       <selection activeCell="I7" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -4315,7 +4327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="5"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1"/>
@@ -4326,7 +4338,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
@@ -4337,7 +4349,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
@@ -4348,7 +4360,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
@@ -4359,7 +4371,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="5"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1"/>
@@ -4370,7 +4382,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1"/>
@@ -4394,9 +4406,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -4669,16 +4681,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
